--- a/files/cv/Bagagli_CV1.xlsx
+++ b/files/cv/Bagagli_CV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbagag/Dropbox UZH/Dropbox/website/static/files/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC551EA-9FCA-EE46-9B14-53A802B59C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11560209-C1D6-2245-9A15-35FD1DB2D47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{603F8D59-1D46-8147-BD3D-4579E6840691}"/>
   </bookViews>
@@ -308,9 +308,6 @@
     </r>
   </si>
   <si>
-    <t>English (proficient), Spanish (conversational), German (in progress), Italian (native)</t>
-  </si>
-  <si>
     <t>Stata, R, GIS, Python (basic)</t>
   </si>
   <si>
@@ -379,87 +376,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>DUP Workshop, Harvard (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>online</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>); 3rd Annual Workshop in International Economics (UZH-HSG), St. Gallen; DUP Workshop, Harvard (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>online</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>); 2021 Swiss Workshop on Political Economy and Develoment, Weggis; Swiss Society of Economics and Statistics Annual Congress (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>online</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>); UEA 2021 Europe (online); DUP Workshop, Harvard (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t>online</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Palatino"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
     <t>Trade Workshop, UC Berkeley (online); DUP Workshop, Harvard (online); 2020 Swiss Workshop on Political Economy and Development (Poster Session), Weggis; Trade Workshop, UC Berkeley; Development Lunch, UC Berkeley; Economic History Lunch, UC Berkeley</t>
   </si>
   <si>
@@ -493,6 +409,90 @@
   <si>
     <t>Grants
 &amp; Awards</t>
+  </si>
+  <si>
+    <r>
+      <t>DUP Workshop, Harvard (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>); 3rd Annual Workshop in International Economics (UZH-HSG), St. Gallen; DUP Workshop, Harvard (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>); 2021 Swiss Workshop on Political Economy and Development, Weggis; Swiss Society of Economics and Statistics Annual Congress (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>); UEA 2021 Europe (online); DUP Workshop, Harvard (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>English (proficient), Spanish (conversational), French (beginner), German (beginner), Italian (native)</t>
   </si>
 </sst>
 </file>
@@ -638,26 +638,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36EA9F-0EC9-F243-BFA4-93BE43291B3A}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,20 +997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1031,7 +1031,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,84 +1042,84 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="20"/>
       <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1138,7 @@
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1190,28 +1190,28 @@
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="32" t="s">
         <v>26</v>
       </c>
@@ -1220,78 +1220,78 @@
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="9" t="s">
         <v>16</v>
       </c>
@@ -1300,44 +1300,44 @@
       <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="9">
         <v>2021</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="9">
         <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="9">
         <v>2019</v>
       </c>
@@ -1346,11 +1346,11 @@
       <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1367,7 +1367,7 @@
     <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="11" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1378,29 +1378,13 @@
     <row r="38" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A23:A28"/>
@@ -1414,6 +1398,22 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/cv/Bagagli_CV1.xlsx
+++ b/files/cv/Bagagli_CV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbagag/Dropbox UZH/Dropbox/website/static/files/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11560209-C1D6-2245-9A15-35FD1DB2D47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F7525-1BED-B940-B7DA-B44E308B9C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{603F8D59-1D46-8147-BD3D-4579E6840691}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>08.2015 - 07.2016</t>
   </si>
   <si>
-    <t>sara.bagagli@econ.uzh.ch</t>
-  </si>
-  <si>
     <t>Fall 2020, Fall 2019, Fall 2018</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>English (proficient), Spanish (conversational), French (beginner), German (beginner), Italian (native)</t>
+  </si>
+  <si>
+    <t>sara.bagagli@uzh.ch</t>
   </si>
 </sst>
 </file>
@@ -638,6 +638,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -647,23 +662,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36EA9F-0EC9-F243-BFA4-93BE43291B3A}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,20 +997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1020,7 +1020,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,84 +1042,84 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="27"/>
+      <c r="A9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="24"/>
       <c r="D9" s="20"/>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="12" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1138,12 +1138,12 @@
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
     <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1190,154 +1190,154 @@
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="12" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="12" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="9">
         <v>2021</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="9">
         <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="9">
         <v>2019</v>
       </c>
@@ -1346,11 +1346,11 @@
       <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1367,7 +1367,7 @@
     <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1378,13 +1378,28 @@
     <row r="38" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F43" s="23"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A23:A28"/>
@@ -1399,21 +1414,6 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
